--- a/biology/Zoologie/Histoire_évolutive_des_Eulipotyphla/Histoire_évolutive_des_Eulipotyphla.xlsx
+++ b/biology/Zoologie/Histoire_évolutive_des_Eulipotyphla/Histoire_évolutive_des_Eulipotyphla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_Eulipotyphla</t>
+          <t>Histoire_évolutive_des_Eulipotyphla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Eulipotyphla, c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_Eulipotyphla</t>
+          <t>Histoire_évolutive_des_Eulipotyphla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps considérés comme le grade inférieur des Mammifères, les Insectivores ont, petit à petit, perdu les Scandentiens et Dermoptères, qui ont rejoint les Primates au sein des Archontes, puis les Macroscélidés qui ont rejoint les Glires au sein des Anagalides. Enfin, avec les dernières phylogénies moléculaires, ils ont perdu les Tenrécidés et les Chrysochloridés, qui ont rejoint le nouveau clade des Afrothériens en tant qu'Afrosoricidés ; ils y ont retrouvé les Macroscélidés qui avaient quitté les Anagalides. Il reste un taxon, présumé monophylétique – à moins qu'il ne soit polyphylétique – constitué des Soricomorphes et des Érinacéomorphes, dénommé Eulipotyphla. Sa place dans la phylogénie des Mammifères reste une question débattue.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_Eulipotyphla</t>
+          <t>Histoire_évolutive_des_Eulipotyphla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -658,7 +674,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_Eulipotyphla</t>
+          <t>Histoire_évolutive_des_Eulipotyphla</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,11 +694,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Autres sources bibliographiques
-Sources internet
-Liens internes
-Arbre phylogénétique
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
